--- a/biology/Botanique/Lasiochlamys_cordifolia/Lasiochlamys_cordifolia.xlsx
+++ b/biology/Botanique/Lasiochlamys_cordifolia/Lasiochlamys_cordifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasiochlamys cordifolia est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys, endémique de Nouvelle-Calédonie. L'espèce est protégée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasiochlamys cordifolia est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys, endémique de Nouvelle-Calédonie. L'espèce est protégée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste grêle de 3 m ; les rameaux sont couverts de lenticelles. Les feuilles sont un peu coriaces, elliptiques ou ovales, cordées et dissymétiques à la base, obtuses au sommet ; le bord est entier ou peu crénelé ; le pétiole est long. Les fleurs mâles n'ont pas été décrites ; les femelles sont blanchâtres, sur des glomérules de 10–15 fleurs sur les rameaux. Les fruits sont jeunes, seuls vus ; les graines sont par 3-4 immatures. La floraison et la fructification ont lieu en novembre et en mai-juin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste grêle de 3 m ; les rameaux sont couverts de lenticelles. Les feuilles sont un peu coriaces, elliptiques ou ovales, cordées et dissymétiques à la base, obtuses au sommet ; le bord est entier ou peu crénelé ; le pétiole est long. Les fleurs mâles n'ont pas été décrites ; les femelles sont blanchâtres, sur des glomérules de 10–15 fleurs sur les rameaux. Les fruits sont jeunes, seuls vus ; les graines sont par 3-4 immatures. La floraison et la fructification ont lieu en novembre et en mai-juin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur la Grande Terre (Nouvelle-Calédonie), dans les vallées de Ponérihouen (Aoupinié) et de Poindimié (Povila). Son habitat est les sous-bois de la forêt dense, humide, sur substrat schisteux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur la Grande Terre (Nouvelle-Calédonie), dans les vallées de Ponérihouen (Aoupinié) et de Poindimié (Povila). Son habitat est les sous-bois de la forêt dense, humide, sur substrat schisteux.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. Sleumer, « A concise revision of the Flacourtiaceae of New Caledonia anf the Loyalty Islands », Blumea: Biodiversity, Evolution and Biogeography of Plants, vol. 22, no 1,‎ 1er janvier 1974, p. 127 (ISSN 2212-1676, lire en ligne, consulté le 8 janvier 2021)</t>
         </is>
